--- a/PNW_generators_Joy.xlsx
+++ b/PNW_generators_Joy.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="189">
   <si>
     <t>name</t>
   </si>
@@ -594,6 +594,9 @@
   </si>
   <si>
     <t>Net</t>
+  </si>
+  <si>
+    <t>300??</t>
   </si>
 </sst>
 </file>
@@ -950,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="J105" sqref="J105"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="Q106" sqref="Q106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5400,6 +5403,12 @@
       </c>
       <c r="I105">
         <v>0</v>
+      </c>
+      <c r="J105" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q105" s="4">
+        <v>10.46</v>
       </c>
       <c r="R105" s="7">
         <v>0.91568000000000005</v>
